--- a/data_final/consolidated/dictionaries/S_Dict.xlsx
+++ b/data_final/consolidated/dictionaries/S_Dict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wimer\github\opioid-policy-scan\data_final\consolidated\dictionaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0BD2C0-F720-4AD6-BC58-25F0A308DC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C3EF4A-690F-4334-B665-9BC24673613C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="14595" xr2:uid="{8E8ECB20-C253-4C6B-B47F-97465896DC83}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2232" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2232" uniqueCount="608">
   <si>
     <t>G_STATEFP</t>
   </si>
@@ -1260,9 +1260,6 @@
   </si>
   <si>
     <t>Overdose mortality rate in 2017</t>
-  </si>
-  <si>
-    <t>FLoat</t>
   </si>
   <si>
     <t>Fraction of year that state has any prescription drug monitoring program operating.</t>
@@ -2247,8 +2244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A1ADFE-BBD7-4B6E-9B58-C407313C040C}">
   <dimension ref="A1:P231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="G243" sqref="G243"/>
+    <sheetView tabSelected="1" topLeftCell="J162" workbookViewId="0">
+      <selection activeCell="M178" sqref="M178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2282,10 +2279,10 @@
         <v>2010</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>607</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>608</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>201</v>
@@ -2300,7 +2297,7 @@
         <v>205</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>206</v>
@@ -2336,10 +2333,10 @@
         <v>213</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P2" s="2"/>
     </row>
@@ -2367,7 +2364,7 @@
         <v>53</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P3" s="2"/>
     </row>
@@ -2392,10 +2389,10 @@
         <v>213</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P4" s="2"/>
     </row>
@@ -2404,37 +2401,37 @@
         <v>214</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>217</v>
@@ -2443,10 +2440,10 @@
         <v>7294336</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.45">
@@ -2454,7 +2451,7 @@
         <v>214</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>3</v>
@@ -2469,7 +2466,7 @@
         <v>220</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>217</v>
@@ -2478,7 +2475,7 @@
         <v>7151776</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P6" s="2"/>
     </row>
@@ -2487,10 +2484,10 @@
         <v>214</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>4</v>
@@ -2499,13 +2496,13 @@
         <v>308</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>217</v>
@@ -2514,7 +2511,7 @@
         <v>537713</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P7" s="2"/>
     </row>
@@ -2523,22 +2520,22 @@
         <v>214</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>5</v>
@@ -2547,13 +2544,13 @@
         <v>221</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>217</v>
@@ -2562,10 +2559,10 @@
         <v>3064381</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.45">
@@ -2573,7 +2570,7 @@
         <v>214</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>6</v>
@@ -2588,7 +2585,7 @@
         <v>220</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>217</v>
@@ -2597,7 +2594,7 @@
         <v>3513856</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P9" s="2"/>
     </row>
@@ -2606,22 +2603,22 @@
         <v>214</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>7</v>
@@ -2630,13 +2627,13 @@
         <v>223</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>224</v>
@@ -2645,10 +2642,10 @@
         <v>76.03</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.45">
@@ -2656,22 +2653,22 @@
         <v>214</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>8</v>
@@ -2680,13 +2677,13 @@
         <v>225</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>224</v>
@@ -2695,10 +2692,10 @@
         <v>3.7</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.45">
@@ -2706,22 +2703,22 @@
         <v>214</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>9</v>
@@ -2730,13 +2727,13 @@
         <v>226</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>224</v>
@@ -2745,10 +2742,10 @@
         <v>1.3</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.45">
@@ -2756,22 +2753,22 @@
         <v>214</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>10</v>
@@ -2780,13 +2777,13 @@
         <v>227</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>224</v>
@@ -2795,10 +2792,10 @@
         <v>8.33</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.45">
@@ -2806,37 +2803,37 @@
         <v>214</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>580</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>580</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>580</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>580</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>580</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>580</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>581</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>228</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>224</v>
@@ -2845,10 +2842,10 @@
         <v>0.66</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.45">
@@ -2856,22 +2853,22 @@
         <v>214</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>11</v>
@@ -2880,13 +2877,13 @@
         <v>229</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>224</v>
@@ -2895,10 +2892,10 @@
         <v>9.98</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.45">
@@ -2906,22 +2903,22 @@
         <v>214</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>12</v>
@@ -2930,13 +2927,13 @@
         <v>230</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>224</v>
@@ -2945,10 +2942,10 @@
         <v>12.5</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.45">
@@ -2956,22 +2953,22 @@
         <v>214</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>13</v>
@@ -2980,10 +2977,10 @@
         <v>231</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2" t="s">
@@ -2993,10 +2990,10 @@
         <v>78</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.45">
@@ -3004,22 +3001,22 @@
         <v>214</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>14</v>
@@ -3028,13 +3025,13 @@
         <v>232</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>224</v>
@@ -3043,10 +3040,10 @@
         <v>12.74</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.45">
@@ -3054,22 +3051,22 @@
         <v>214</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>15</v>
@@ -3078,13 +3075,13 @@
         <v>233</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>224</v>
@@ -3093,10 +3090,10 @@
         <v>59.43</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.45">
@@ -3104,22 +3101,22 @@
         <v>214</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>16</v>
@@ -3128,13 +3125,13 @@
         <v>234</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>224</v>
@@ -3143,10 +3140,10 @@
         <v>14.72</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.45">
@@ -3154,22 +3151,22 @@
         <v>214</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>17</v>
@@ -3178,13 +3175,13 @@
         <v>235</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>217</v>
@@ -3193,10 +3190,10 @@
         <v>453008</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.45">
@@ -3204,22 +3201,22 @@
         <v>214</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>18</v>
@@ -3228,13 +3225,13 @@
         <v>236</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>217</v>
@@ -3243,10 +3240,10 @@
         <v>909873</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.45">
@@ -3254,22 +3251,22 @@
         <v>214</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>19</v>
@@ -3278,13 +3275,13 @@
         <v>237</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>217</v>
@@ -3293,10 +3290,10 @@
         <v>444352</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.45">
@@ -3304,22 +3301,22 @@
         <v>214</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>20</v>
@@ -3328,13 +3325,13 @@
         <v>238</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="M24" s="2" t="s">
         <v>217</v>
@@ -3343,10 +3340,10 @@
         <v>485160</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.45">
@@ -3354,22 +3351,22 @@
         <v>214</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>21</v>
@@ -3378,13 +3375,13 @@
         <v>239</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="M25" s="2" t="s">
         <v>217</v>
@@ -3393,10 +3390,10 @@
         <v>2972063</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.45">
@@ -3404,22 +3401,22 @@
         <v>214</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H26" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="J26" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="K26" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="K26" s="2" t="s">
-        <v>587</v>
-      </c>
       <c r="L26" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>217</v>
@@ -3429,7 +3426,7 @@
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.45">
@@ -3437,16 +3434,16 @@
         <v>214</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>22</v>
@@ -3455,13 +3452,13 @@
         <v>240</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="M27" s="2" t="s">
         <v>217</v>
@@ -3470,10 +3467,10 @@
         <v>467768</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.45">
@@ -3481,16 +3478,16 @@
         <v>214</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>23</v>
@@ -3499,13 +3496,13 @@
         <v>241</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="M28" s="2" t="s">
         <v>217</v>
@@ -3514,10 +3511,10 @@
         <v>476486</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.45">
@@ -3525,22 +3522,22 @@
         <v>214</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>24</v>
@@ -3549,13 +3546,13 @@
         <v>242</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="M29" s="2" t="s">
         <v>217</v>
@@ -3564,10 +3561,10 @@
         <v>487173</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.45">
@@ -3575,22 +3572,22 @@
         <v>214</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>25</v>
@@ -3599,13 +3596,13 @@
         <v>243</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>217</v>
@@ -3614,10 +3611,10 @@
         <v>454466</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.45">
@@ -3625,22 +3622,22 @@
         <v>214</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>26</v>
@@ -3649,13 +3646,13 @@
         <v>244</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="M31" s="2" t="s">
         <v>217</v>
@@ -3664,10 +3661,10 @@
         <v>1073499</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.45">
@@ -3675,10 +3672,10 @@
         <v>214</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>27</v>
@@ -3687,13 +3684,13 @@
         <v>245</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="M32" s="2" t="s">
         <v>217</v>
@@ -3702,7 +3699,7 @@
         <v>5661461</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P32" s="2"/>
     </row>
@@ -3711,22 +3708,22 @@
         <v>214</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>28</v>
@@ -3735,13 +3732,13 @@
         <v>246</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="M33" s="2" t="s">
         <v>217</v>
@@ -3750,10 +3747,10 @@
         <v>4587962</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.45">
@@ -3761,13 +3758,13 @@
         <v>214</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>29</v>
@@ -3776,13 +3773,13 @@
         <v>247</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="M34" s="2" t="s">
         <v>224</v>
@@ -3791,10 +3788,10 @@
         <v>12.7</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.45">
@@ -3802,37 +3799,37 @@
         <v>248</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>249</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="M35" s="2" t="s">
         <v>224</v>
@@ -3841,10 +3838,10 @@
         <v>8.89</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.45">
@@ -3852,10 +3849,10 @@
         <v>214</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>30</v>
@@ -3864,13 +3861,13 @@
         <v>250</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M36" s="2" t="s">
         <v>224</v>
@@ -3879,7 +3876,7 @@
         <v>9.58</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P36" s="2"/>
     </row>
@@ -3888,7 +3885,7 @@
         <v>214</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>31</v>
@@ -3903,7 +3900,7 @@
         <v>220</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="M37" s="2" t="s">
         <v>224</v>
@@ -3912,7 +3909,7 @@
         <v>3.35</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P37" s="2"/>
     </row>
@@ -3921,7 +3918,7 @@
         <v>214</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>32</v>
@@ -3936,7 +3933,7 @@
         <v>220</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>224</v>
@@ -3945,7 +3942,7 @@
         <v>25.61</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P38" s="2"/>
     </row>
@@ -3954,7 +3951,7 @@
         <v>214</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>33</v>
@@ -3969,7 +3966,7 @@
         <v>255</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="M39" s="2" t="s">
         <v>217</v>
@@ -3978,7 +3975,7 @@
         <v>38897</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P39" s="2"/>
     </row>
@@ -3987,7 +3984,7 @@
         <v>214</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>34</v>
@@ -4002,7 +3999,7 @@
         <v>255</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="M40" s="2" t="s">
         <v>217</v>
@@ -4011,7 +4008,7 @@
         <v>32603</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P40" s="2"/>
     </row>
@@ -4020,7 +4017,7 @@
         <v>214</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>35</v>
@@ -4035,7 +4032,7 @@
         <v>255</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="M41" s="2" t="s">
         <v>217</v>
@@ -4044,7 +4041,7 @@
         <v>37597</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P41" s="2"/>
     </row>
@@ -4053,22 +4050,22 @@
         <v>248</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>36</v>
@@ -4077,13 +4074,13 @@
         <v>258</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="M42" s="2" t="s">
         <v>224</v>
@@ -4092,10 +4089,10 @@
         <v>5.3</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.45">
@@ -4103,22 +4100,22 @@
         <v>248</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>37</v>
@@ -4127,13 +4124,13 @@
         <v>259</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="M43" s="2" t="s">
         <v>224</v>
@@ -4142,10 +4139,10 @@
         <v>11.5</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.45">
@@ -4153,10 +4150,10 @@
         <v>248</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>38</v>
@@ -4165,10 +4162,10 @@
         <v>260</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L44" s="2"/>
       <c r="M44" s="2" t="s">
@@ -4178,7 +4175,7 @@
         <v>34148</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P44" s="2"/>
     </row>
@@ -4187,10 +4184,10 @@
         <v>248</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>39</v>
@@ -4199,13 +4196,13 @@
         <v>261</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="M45" s="2" t="s">
         <v>224</v>
@@ -4214,7 +4211,7 @@
         <v>36888</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P45" s="2"/>
     </row>
@@ -4223,7 +4220,7 @@
         <v>248</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>40</v>
@@ -4238,7 +4235,7 @@
         <v>306</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="M46" s="2" t="s">
         <v>224</v>
@@ -4247,7 +4244,7 @@
         <v>5.53</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P46" s="2"/>
     </row>
@@ -4256,7 +4253,7 @@
         <v>248</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>41</v>
@@ -4271,7 +4268,7 @@
         <v>306</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="M47" s="2" t="s">
         <v>217</v>
@@ -4280,7 +4277,7 @@
         <v>48.09</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P47" s="2"/>
     </row>
@@ -4289,10 +4286,10 @@
         <v>248</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>42</v>
@@ -4301,10 +4298,10 @@
         <v>262</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L48" s="2"/>
       <c r="M48" s="2" t="s">
@@ -4314,7 +4311,7 @@
         <v>0.46</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P48" s="2"/>
     </row>
@@ -4323,7 +4320,7 @@
         <v>248</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>43</v>
@@ -4338,7 +4335,7 @@
         <v>220</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="M49" s="2" t="s">
         <v>224</v>
@@ -4347,7 +4344,7 @@
         <v>8.44</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P49" s="2"/>
     </row>
@@ -4356,7 +4353,7 @@
         <v>248</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>44</v>
@@ -4371,7 +4368,7 @@
         <v>220</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="M50" s="2" t="s">
         <v>224</v>
@@ -4380,7 +4377,7 @@
         <v>20</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P50" s="2"/>
     </row>
@@ -4389,7 +4386,7 @@
         <v>248</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>45</v>
@@ -4404,7 +4401,7 @@
         <v>220</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="M51" s="2" t="s">
         <v>224</v>
@@ -4413,7 +4410,7 @@
         <v>13.13</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P51" s="2"/>
     </row>
@@ -4422,7 +4419,7 @@
         <v>248</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>46</v>
@@ -4437,7 +4434,7 @@
         <v>220</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="M52" s="2" t="s">
         <v>224</v>
@@ -4446,7 +4443,7 @@
         <v>11.7</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P52" s="2"/>
     </row>
@@ -4455,7 +4452,7 @@
         <v>248</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>47</v>
@@ -4470,7 +4467,7 @@
         <v>220</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="M53" s="2" t="s">
         <v>217</v>
@@ -4479,7 +4476,7 @@
         <v>1509709</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P53" s="2"/>
     </row>
@@ -4488,7 +4485,7 @@
         <v>248</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>48</v>
@@ -4503,7 +4500,7 @@
         <v>220</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="M54" s="2" t="s">
         <v>224</v>
@@ -4512,7 +4509,7 @@
         <v>42.96</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P54" s="2"/>
     </row>
@@ -4521,7 +4518,7 @@
         <v>269</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>49</v>
@@ -4536,7 +4533,7 @@
         <v>272</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="M55" s="2" t="s">
         <v>224</v>
@@ -4545,7 +4542,7 @@
         <v>8.7899999999999991</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P55" s="2"/>
     </row>
@@ -4554,22 +4551,22 @@
         <v>269</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>50</v>
@@ -4578,13 +4575,13 @@
         <v>273</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="M56" s="2" t="s">
         <v>224</v>
@@ -4593,10 +4590,10 @@
         <v>8.61</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.45">
@@ -4604,7 +4601,7 @@
         <v>269</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>51</v>
@@ -4619,7 +4616,7 @@
         <v>216</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="M57" s="2" t="s">
         <v>224</v>
@@ -4628,7 +4625,7 @@
         <v>6.39</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P57" s="2"/>
     </row>
@@ -4637,7 +4634,7 @@
         <v>269</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>52</v>
@@ -4652,7 +4649,7 @@
         <v>216</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="M58" s="2" t="s">
         <v>224</v>
@@ -4661,7 +4658,7 @@
         <v>19.989999999999998</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P58" s="2"/>
     </row>
@@ -4670,7 +4667,7 @@
         <v>269</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>53</v>
@@ -4685,7 +4682,7 @@
         <v>216</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="M59" s="2" t="s">
         <v>224</v>
@@ -4694,7 +4691,7 @@
         <v>37.28</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P59" s="2"/>
     </row>
@@ -4703,7 +4700,7 @@
         <v>269</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>54</v>
@@ -4718,7 +4715,7 @@
         <v>216</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="M60" s="2" t="s">
         <v>224</v>
@@ -4727,7 +4724,7 @@
         <v>46.11</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P60" s="2"/>
     </row>
@@ -4736,7 +4733,7 @@
         <v>210</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>55</v>
@@ -4751,7 +4748,7 @@
         <v>280</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="M61" s="2" t="s">
         <v>224</v>
@@ -4760,7 +4757,7 @@
         <v>66452.740000000005</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P61" s="2"/>
     </row>
@@ -4769,7 +4766,7 @@
         <v>269</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>56</v>
@@ -4784,7 +4781,7 @@
         <v>280</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="M62" s="2" t="s">
         <v>217</v>
@@ -4793,7 +4790,7 @@
         <v>421</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P62" s="2"/>
     </row>
@@ -4802,7 +4799,7 @@
         <v>269</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>57</v>
@@ -4817,7 +4814,7 @@
         <v>280</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="M63" s="2" t="s">
         <v>224</v>
@@ -4826,7 +4823,7 @@
         <v>0.01</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P63" s="2"/>
     </row>
@@ -4835,7 +4832,7 @@
         <v>269</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>58</v>
@@ -4850,7 +4847,7 @@
         <v>280</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="M64" s="2" t="s">
         <v>224</v>
@@ -4859,7 +4856,7 @@
         <v>0</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P64" s="2"/>
     </row>
@@ -4868,7 +4865,7 @@
         <v>214</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>59</v>
@@ -4883,7 +4880,7 @@
         <v>220</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M65" s="2" t="s">
         <v>224</v>
@@ -4892,7 +4889,7 @@
         <v>0.42</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P65" s="2"/>
     </row>
@@ -4901,7 +4898,7 @@
         <v>214</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>60</v>
@@ -4916,7 +4913,7 @@
         <v>220</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M66" s="2" t="s">
         <v>224</v>
@@ -4925,7 +4922,7 @@
         <v>0.71</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P66" s="2"/>
     </row>
@@ -4934,7 +4931,7 @@
         <v>214</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>61</v>
@@ -4949,7 +4946,7 @@
         <v>220</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M67" s="2" t="s">
         <v>224</v>
@@ -4958,7 +4955,7 @@
         <v>0.03</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P67" s="2"/>
     </row>
@@ -4967,7 +4964,7 @@
         <v>214</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>62</v>
@@ -4982,7 +4979,7 @@
         <v>220</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M68" s="2" t="s">
         <v>224</v>
@@ -4991,7 +4988,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P68" s="2"/>
     </row>
@@ -5000,7 +4997,7 @@
         <v>214</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>63</v>
@@ -5015,7 +5012,7 @@
         <v>220</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M69" s="2" t="s">
         <v>224</v>
@@ -5024,7 +5021,7 @@
         <v>0.71</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P69" s="2"/>
     </row>
@@ -5033,7 +5030,7 @@
         <v>214</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>64</v>
@@ -5048,7 +5045,7 @@
         <v>220</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M70" s="2" t="s">
         <v>224</v>
@@ -5057,7 +5054,7 @@
         <v>0.19</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P70" s="2"/>
     </row>
@@ -5066,7 +5063,7 @@
         <v>214</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>65</v>
@@ -5081,7 +5078,7 @@
         <v>220</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M71" s="2" t="s">
         <v>224</v>
@@ -5090,7 +5087,7 @@
         <v>0.33</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P71" s="2"/>
     </row>
@@ -5099,7 +5096,7 @@
         <v>214</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>66</v>
@@ -5114,7 +5111,7 @@
         <v>220</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M72" s="2" t="s">
         <v>224</v>
@@ -5123,7 +5120,7 @@
         <v>0.75</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P72" s="2"/>
     </row>
@@ -5132,7 +5129,7 @@
         <v>214</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>67</v>
@@ -5147,7 +5144,7 @@
         <v>220</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M73" s="2" t="s">
         <v>224</v>
@@ -5156,7 +5153,7 @@
         <v>0.04</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P73" s="2"/>
     </row>
@@ -5165,7 +5162,7 @@
         <v>269</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>68</v>
@@ -5180,7 +5177,7 @@
         <v>295</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M74" s="2" t="s">
         <v>224</v>
@@ -5189,7 +5186,7 @@
         <v>0.06</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="P74" s="2"/>
     </row>
@@ -5198,7 +5195,7 @@
         <v>269</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>69</v>
@@ -5213,7 +5210,7 @@
         <v>313</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M75" s="2" t="s">
         <v>224</v>
@@ -5222,7 +5219,7 @@
         <v>39296898972.470001</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P75" s="2"/>
     </row>
@@ -5231,7 +5228,7 @@
         <v>210</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>70</v>
@@ -5246,7 +5243,7 @@
         <v>212</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M76" s="2" t="s">
         <v>224</v>
@@ -5255,7 +5252,7 @@
         <v>4486028684.1800003</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P76" s="2"/>
     </row>
@@ -5264,7 +5261,7 @@
         <v>269</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>71</v>
@@ -5279,7 +5276,7 @@
         <v>313</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M77" s="2" t="s">
         <v>224</v>
@@ -5288,7 +5285,7 @@
         <v>8.76</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P77" s="2"/>
     </row>
@@ -5297,7 +5294,7 @@
         <v>210</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>72</v>
@@ -5312,7 +5309,7 @@
         <v>212</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="M78" s="2" t="s">
         <v>217</v>
@@ -5321,7 +5318,7 @@
         <v>1458</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P78" s="2"/>
     </row>
@@ -5330,7 +5327,7 @@
         <v>269</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>73</v>
@@ -5345,7 +5342,7 @@
         <v>296</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="M79" s="2" t="s">
         <v>217</v>
@@ -5354,7 +5351,7 @@
         <v>1400</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P79" s="2"/>
     </row>
@@ -5363,7 +5360,7 @@
         <v>269</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>74</v>
@@ -5378,7 +5375,7 @@
         <v>296</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="M80" s="2" t="s">
         <v>217</v>
@@ -5387,7 +5384,7 @@
         <v>996</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P80" s="2"/>
     </row>
@@ -5396,7 +5393,7 @@
         <v>269</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H81" s="2" t="s">
         <v>75</v>
@@ -5411,7 +5408,7 @@
         <v>296</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="M81" s="2" t="s">
         <v>217</v>
@@ -5420,7 +5417,7 @@
         <v>1323</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P81" s="2"/>
     </row>
@@ -5429,7 +5426,7 @@
         <v>269</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>76</v>
@@ -5444,7 +5441,7 @@
         <v>296</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="M82" s="2" t="s">
         <v>224</v>
@@ -5453,7 +5450,7 @@
         <v>6.9</v>
       </c>
       <c r="O82" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="P82" s="2"/>
     </row>
@@ -5462,7 +5459,7 @@
         <v>269</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H83" s="2" t="s">
         <v>77</v>
@@ -5477,7 +5474,7 @@
         <v>296</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="M83" s="2" t="s">
         <v>224</v>
@@ -5486,7 +5483,7 @@
         <v>29.15</v>
       </c>
       <c r="O83" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="P83" s="2"/>
     </row>
@@ -5495,7 +5492,7 @@
         <v>269</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>78</v>
@@ -5510,7 +5507,7 @@
         <v>296</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="M84" s="2" t="s">
         <v>224</v>
@@ -5519,7 +5516,7 @@
         <v>11.68</v>
       </c>
       <c r="O84" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="P84" s="2"/>
     </row>
@@ -5528,7 +5525,7 @@
         <v>269</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>79</v>
@@ -5543,7 +5540,7 @@
         <v>296</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="M85" s="2" t="s">
         <v>224</v>
@@ -5552,7 +5549,7 @@
         <v>0.96</v>
       </c>
       <c r="O85" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P85" s="2"/>
     </row>
@@ -5561,7 +5558,7 @@
         <v>269</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>80</v>
@@ -5576,7 +5573,7 @@
         <v>296</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="M86" s="2" t="s">
         <v>224</v>
@@ -5585,7 +5582,7 @@
         <v>0.68</v>
       </c>
       <c r="O86" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P86" s="2"/>
     </row>
@@ -5594,7 +5591,7 @@
         <v>269</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>81</v>
@@ -5609,7 +5606,7 @@
         <v>296</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="M87" s="2" t="s">
         <v>224</v>
@@ -5618,7 +5615,7 @@
         <v>0.91</v>
       </c>
       <c r="O87" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P87" s="2"/>
     </row>
@@ -5627,7 +5624,7 @@
         <v>269</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>82</v>
@@ -5642,7 +5639,7 @@
         <v>298</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="M88" s="2" t="s">
         <v>217</v>
@@ -5651,7 +5648,7 @@
         <v>1359</v>
       </c>
       <c r="O88" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P88" s="2"/>
     </row>
@@ -5660,7 +5657,7 @@
         <v>269</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>83</v>
@@ -5675,7 +5672,7 @@
         <v>298</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="M89" s="2" t="s">
         <v>224</v>
@@ -5684,7 +5681,7 @@
         <v>10.65</v>
       </c>
       <c r="O89" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P89" s="2"/>
     </row>
@@ -5693,7 +5690,7 @@
         <v>269</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>84</v>
@@ -5708,7 +5705,7 @@
         <v>298</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="M90" s="2" t="s">
         <v>224</v>
@@ -5717,7 +5714,7 @@
         <v>0.93</v>
       </c>
       <c r="O90" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P90" s="2"/>
     </row>
@@ -5726,7 +5723,7 @@
         <v>269</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>85</v>
@@ -5741,7 +5738,7 @@
         <v>299</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M91" s="2" t="s">
         <v>217</v>
@@ -5750,7 +5747,7 @@
         <v>1334</v>
       </c>
       <c r="O91" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P91" s="2"/>
     </row>
@@ -5759,7 +5756,7 @@
         <v>269</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H92" s="2" t="s">
         <v>86</v>
@@ -5774,7 +5771,7 @@
         <v>299</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M92" s="2" t="s">
         <v>224</v>
@@ -5783,7 +5780,7 @@
         <v>13.13</v>
       </c>
       <c r="O92" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P92" s="2"/>
     </row>
@@ -5792,7 +5789,7 @@
         <v>269</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>87</v>
@@ -5807,7 +5804,7 @@
         <v>299</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M93" s="2" t="s">
         <v>224</v>
@@ -5816,7 +5813,7 @@
         <v>0.92</v>
       </c>
       <c r="O93" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P93" s="2"/>
     </row>
@@ -5825,7 +5822,7 @@
         <v>269</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>88</v>
@@ -5840,7 +5837,7 @@
         <v>300</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="M94" s="2" t="s">
         <v>217</v>
@@ -5849,7 +5846,7 @@
         <v>1406</v>
       </c>
       <c r="O94" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P94" s="2"/>
     </row>
@@ -5858,7 +5855,7 @@
         <v>269</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>89</v>
@@ -5873,7 +5870,7 @@
         <v>300</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="M95" s="2" t="s">
         <v>224</v>
@@ -5882,7 +5879,7 @@
         <v>5.97</v>
       </c>
       <c r="O95" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P95" s="2"/>
     </row>
@@ -5891,7 +5888,7 @@
         <v>269</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H96" s="2" t="s">
         <v>90</v>
@@ -5906,7 +5903,7 @@
         <v>300</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="M96" s="2" t="s">
         <v>224</v>
@@ -5915,7 +5912,7 @@
         <v>0.96</v>
       </c>
       <c r="O96" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P96" s="2"/>
     </row>
@@ -5924,7 +5921,7 @@
         <v>269</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H97" s="2" t="s">
         <v>91</v>
@@ -5939,7 +5936,7 @@
         <v>302</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="M97" s="2" t="s">
         <v>217</v>
@@ -5948,7 +5945,7 @@
         <v>1342</v>
       </c>
       <c r="O97" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P97" s="2"/>
     </row>
@@ -5957,7 +5954,7 @@
         <v>269</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>92</v>
@@ -5972,7 +5969,7 @@
         <v>302</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="M98" s="2" t="s">
         <v>224</v>
@@ -5981,7 +5978,7 @@
         <v>11.42</v>
       </c>
       <c r="O98" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P98" s="2"/>
     </row>
@@ -5990,7 +5987,7 @@
         <v>269</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H99" s="2" t="s">
         <v>93</v>
@@ -6005,7 +6002,7 @@
         <v>302</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="M99" s="2" t="s">
         <v>224</v>
@@ -6014,7 +6011,7 @@
         <v>0.92</v>
       </c>
       <c r="O99" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P99" s="2"/>
     </row>
@@ -6023,7 +6020,7 @@
         <v>269</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H100" s="2" t="s">
         <v>94</v>
@@ -6038,7 +6035,7 @@
         <v>302</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="M100" s="2" t="s">
         <v>217</v>
@@ -6047,7 +6044,7 @@
         <v>1364</v>
       </c>
       <c r="O100" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P100" s="2"/>
     </row>
@@ -6056,7 +6053,7 @@
         <v>269</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H101" s="2" t="s">
         <v>95</v>
@@ -6071,7 +6068,7 @@
         <v>302</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="M101" s="2" t="s">
         <v>224</v>
@@ -6080,7 +6077,7 @@
         <v>9.9600000000000009</v>
       </c>
       <c r="O101" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P101" s="2"/>
     </row>
@@ -6089,7 +6086,7 @@
         <v>269</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H102" s="2" t="s">
         <v>96</v>
@@ -6104,7 +6101,7 @@
         <v>302</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="M102" s="2" t="s">
         <v>224</v>
@@ -6113,7 +6110,7 @@
         <v>0.94</v>
       </c>
       <c r="O102" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P102" s="2"/>
     </row>
@@ -6122,7 +6119,7 @@
         <v>269</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H103" s="2" t="s">
         <v>97</v>
@@ -6137,7 +6134,7 @@
         <v>304</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="M103" s="2" t="s">
         <v>217</v>
@@ -6146,7 +6143,7 @@
         <v>1092</v>
       </c>
       <c r="O103" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P103" s="2"/>
     </row>
@@ -6155,7 +6152,7 @@
         <v>269</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H104" s="2" t="s">
         <v>98</v>
@@ -6170,7 +6167,7 @@
         <v>304</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="M104" s="2" t="s">
         <v>224</v>
@@ -6179,7 +6176,7 @@
         <v>24.18</v>
       </c>
       <c r="O104" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P104" s="2"/>
     </row>
@@ -6188,7 +6185,7 @@
         <v>269</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H105" s="2" t="s">
         <v>99</v>
@@ -6203,7 +6200,7 @@
         <v>304</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="M105" s="2" t="s">
         <v>224</v>
@@ -6212,16 +6209,16 @@
         <v>0.75</v>
       </c>
       <c r="O105" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P105" s="2"/>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A106" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H106" s="2" t="s">
         <v>100</v>
@@ -6236,7 +6233,7 @@
         <v>347</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="M106" s="2" t="s">
         <v>217</v>
@@ -6245,16 +6242,16 @@
         <v>9691</v>
       </c>
       <c r="O106" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="P106" s="2"/>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A107" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H107" s="2" t="s">
         <v>101</v>
@@ -6269,7 +6266,7 @@
         <v>350</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M107" s="2" t="s">
         <v>224</v>
@@ -6278,16 +6275,16 @@
         <v>54200</v>
       </c>
       <c r="O107" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P107" s="2"/>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A108" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H108" s="2" t="s">
         <v>102</v>
@@ -6302,7 +6299,7 @@
         <v>350</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M108" s="2" t="s">
         <v>224</v>
@@ -6311,16 +6308,16 @@
         <v>37500</v>
       </c>
       <c r="O108" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P108" s="2"/>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A109" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H109" s="2" t="s">
         <v>103</v>
@@ -6335,7 +6332,7 @@
         <v>350</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M109" s="2" t="s">
         <v>224</v>
@@ -6344,16 +6341,16 @@
         <v>16900</v>
       </c>
       <c r="O109" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P109" s="2"/>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A110" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H110" s="2" t="s">
         <v>104</v>
@@ -6368,7 +6365,7 @@
         <v>350</v>
       </c>
       <c r="L110" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M110" s="2" t="s">
         <v>224</v>
@@ -6377,16 +6374,16 @@
         <v>9400</v>
       </c>
       <c r="O110" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P110" s="2"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A111" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H111" s="2" t="s">
         <v>105</v>
@@ -6401,7 +6398,7 @@
         <v>350</v>
       </c>
       <c r="L111" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M111" s="2" t="s">
         <v>224</v>
@@ -6410,16 +6407,16 @@
         <v>43300</v>
       </c>
       <c r="O111" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P111" s="2"/>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A112" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H112" s="2" t="s">
         <v>106</v>
@@ -6434,7 +6431,7 @@
         <v>350</v>
       </c>
       <c r="L112" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M112" s="2" t="s">
         <v>224</v>
@@ -6443,16 +6440,16 @@
         <v>1600</v>
       </c>
       <c r="O112" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P112" s="2"/>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A113" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H113" s="2" t="s">
         <v>107</v>
@@ -6467,7 +6464,7 @@
         <v>350</v>
       </c>
       <c r="L113" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M113" s="2" t="s">
         <v>224</v>
@@ -6476,16 +6473,16 @@
         <v>5600</v>
       </c>
       <c r="O113" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P113" s="2"/>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A114" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>108</v>
@@ -6500,7 +6497,7 @@
         <v>350</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M114" s="2" t="s">
         <v>224</v>
@@ -6509,22 +6506,22 @@
         <v>49000</v>
       </c>
       <c r="O114" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P114" s="2"/>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A115" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J115" s="2" t="s">
         <v>350</v>
@@ -6533,7 +6530,7 @@
         <v>350</v>
       </c>
       <c r="L115" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M115" s="2" t="s">
         <v>217</v>
@@ -6542,22 +6539,22 @@
         <v>592</v>
       </c>
       <c r="O115" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P115" s="2"/>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A116" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J116" s="2" t="s">
         <v>350</v>
@@ -6566,7 +6563,7 @@
         <v>350</v>
       </c>
       <c r="L116" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M116" s="2" t="s">
         <v>217</v>
@@ -6575,22 +6572,22 @@
         <v>417</v>
       </c>
       <c r="O116" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P116" s="2"/>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A117" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J117" s="2" t="s">
         <v>350</v>
@@ -6599,7 +6596,7 @@
         <v>350</v>
       </c>
       <c r="L117" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M117" s="2" t="s">
         <v>217</v>
@@ -6608,22 +6605,22 @@
         <v>175</v>
       </c>
       <c r="O117" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="P117" s="2"/>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A118" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J118" s="2" t="s">
         <v>350</v>
@@ -6632,7 +6629,7 @@
         <v>350</v>
       </c>
       <c r="L118" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M118" s="2" t="s">
         <v>217</v>
@@ -6641,22 +6638,22 @@
         <v>20</v>
       </c>
       <c r="O118" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="P118" s="2"/>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A119" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J119" s="2" t="s">
         <v>350</v>
@@ -6665,7 +6662,7 @@
         <v>350</v>
       </c>
       <c r="L119" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M119" s="2" t="s">
         <v>217</v>
@@ -6674,22 +6671,22 @@
         <v>29</v>
       </c>
       <c r="O119" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="P119" s="2"/>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A120" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="J120" s="2" t="s">
         <v>350</v>
@@ -6698,7 +6695,7 @@
         <v>350</v>
       </c>
       <c r="L120" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M120" s="2" t="s">
         <v>217</v>
@@ -6707,22 +6704,22 @@
         <v>48</v>
       </c>
       <c r="O120" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="P120" s="2"/>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A121" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J121" s="2" t="s">
         <v>350</v>
@@ -6731,7 +6728,7 @@
         <v>350</v>
       </c>
       <c r="L121" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M121" s="2" t="s">
         <v>217</v>
@@ -6740,22 +6737,22 @@
         <v>32</v>
       </c>
       <c r="O121" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="P121" s="2"/>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A122" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J122" s="2" t="s">
         <v>350</v>
@@ -6764,7 +6761,7 @@
         <v>350</v>
       </c>
       <c r="L122" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M122" s="2" t="s">
         <v>217</v>
@@ -6773,22 +6770,22 @@
         <v>40</v>
       </c>
       <c r="O122" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="P122" s="2"/>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A123" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="J123" s="2" t="s">
         <v>350</v>
@@ -6797,7 +6794,7 @@
         <v>350</v>
       </c>
       <c r="L123" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M123" s="2" t="s">
         <v>217</v>
@@ -6806,22 +6803,22 @@
         <v>515</v>
       </c>
       <c r="O123" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="P123" s="2"/>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A124" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J124" s="2" t="s">
         <v>350</v>
@@ -6830,7 +6827,7 @@
         <v>350</v>
       </c>
       <c r="L124" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M124" s="2" t="s">
         <v>217</v>
@@ -6839,16 +6836,16 @@
         <v>17</v>
       </c>
       <c r="O124" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="P124" s="2"/>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A125" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>109</v>
@@ -6863,7 +6860,7 @@
         <v>350</v>
       </c>
       <c r="L125" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M125" s="2" t="s">
         <v>217</v>
@@ -6872,16 +6869,16 @@
         <v>644</v>
       </c>
       <c r="O125" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P125" s="2"/>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A126" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H126" s="2" t="s">
         <v>110</v>
@@ -6896,7 +6893,7 @@
         <v>350</v>
       </c>
       <c r="L126" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M126" s="2" t="s">
         <v>217</v>
@@ -6905,16 +6902,16 @@
         <v>438</v>
       </c>
       <c r="O126" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P126" s="2"/>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A127" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H127" s="2" t="s">
         <v>111</v>
@@ -6929,7 +6926,7 @@
         <v>350</v>
       </c>
       <c r="L127" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M127" s="2" t="s">
         <v>217</v>
@@ -6938,16 +6935,16 @@
         <v>206</v>
       </c>
       <c r="O127" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="P127" s="2"/>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A128" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H128" s="2" t="s">
         <v>112</v>
@@ -6962,7 +6959,7 @@
         <v>350</v>
       </c>
       <c r="L128" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M128" s="2" t="s">
         <v>217</v>
@@ -6971,16 +6968,16 @@
         <v>27</v>
       </c>
       <c r="O128" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="P128" s="2"/>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A129" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H129" s="2" t="s">
         <v>113</v>
@@ -6995,7 +6992,7 @@
         <v>350</v>
       </c>
       <c r="L129" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M129" s="2" t="s">
         <v>217</v>
@@ -7004,16 +7001,16 @@
         <v>25</v>
       </c>
       <c r="O129" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="P129" s="2"/>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A130" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H130" s="2" t="s">
         <v>114</v>
@@ -7028,7 +7025,7 @@
         <v>350</v>
       </c>
       <c r="L130" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M130" s="2" t="s">
         <v>217</v>
@@ -7037,16 +7034,16 @@
         <v>38</v>
       </c>
       <c r="O130" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="P130" s="2"/>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A131" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H131" s="2" t="s">
         <v>115</v>
@@ -7061,7 +7058,7 @@
         <v>350</v>
       </c>
       <c r="L131" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M131" s="2" t="s">
         <v>217</v>
@@ -7070,16 +7067,16 @@
         <v>41</v>
       </c>
       <c r="O131" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P131" s="2"/>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A132" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H132" s="2" t="s">
         <v>116</v>
@@ -7094,7 +7091,7 @@
         <v>350</v>
       </c>
       <c r="L132" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M132" s="2" t="s">
         <v>217</v>
@@ -7103,16 +7100,16 @@
         <v>34</v>
       </c>
       <c r="O132" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="P132" s="2"/>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A133" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H133" s="2" t="s">
         <v>117</v>
@@ -7127,7 +7124,7 @@
         <v>350</v>
       </c>
       <c r="L133" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M133" s="2" t="s">
         <v>217</v>
@@ -7136,16 +7133,16 @@
         <v>546</v>
       </c>
       <c r="O133" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="P133" s="2"/>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A134" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H134" s="2" t="s">
         <v>118</v>
@@ -7160,7 +7157,7 @@
         <v>350</v>
       </c>
       <c r="L134" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M134" s="2" t="s">
         <v>217</v>
@@ -7169,16 +7166,16 @@
         <v>34</v>
       </c>
       <c r="O134" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="P134" s="2"/>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A135" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H135" s="2" t="s">
         <v>119</v>
@@ -7193,7 +7190,7 @@
         <v>350</v>
       </c>
       <c r="L135" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M135" s="2" t="s">
         <v>217</v>
@@ -7202,16 +7199,16 @@
         <v>651</v>
       </c>
       <c r="O135" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P135" s="2"/>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A136" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>120</v>
@@ -7226,7 +7223,7 @@
         <v>350</v>
       </c>
       <c r="L136" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M136" s="2" t="s">
         <v>217</v>
@@ -7235,16 +7232,16 @@
         <v>462</v>
       </c>
       <c r="O136" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P136" s="2"/>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A137" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H137" s="2" t="s">
         <v>121</v>
@@ -7259,7 +7256,7 @@
         <v>350</v>
       </c>
       <c r="L137" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M137" s="2" t="s">
         <v>217</v>
@@ -7268,16 +7265,16 @@
         <v>189</v>
       </c>
       <c r="O137" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="P137" s="2"/>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A138" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H138" s="2" t="s">
         <v>122</v>
@@ -7292,7 +7289,7 @@
         <v>350</v>
       </c>
       <c r="L138" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M138" s="2" t="s">
         <v>217</v>
@@ -7301,16 +7298,16 @@
         <v>21</v>
       </c>
       <c r="O138" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="P138" s="2"/>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A139" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H139" s="2" t="s">
         <v>123</v>
@@ -7325,7 +7322,7 @@
         <v>350</v>
       </c>
       <c r="L139" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M139" s="2" t="s">
         <v>217</v>
@@ -7334,16 +7331,16 @@
         <v>27</v>
       </c>
       <c r="O139" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="P139" s="2"/>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A140" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H140" s="2" t="s">
         <v>124</v>
@@ -7358,7 +7355,7 @@
         <v>350</v>
       </c>
       <c r="L140" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M140" s="2" t="s">
         <v>217</v>
@@ -7367,16 +7364,16 @@
         <v>48</v>
       </c>
       <c r="O140" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="P140" s="2"/>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A141" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F141" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H141" s="2" t="s">
         <v>125</v>
@@ -7391,7 +7388,7 @@
         <v>350</v>
       </c>
       <c r="L141" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M141" s="2" t="s">
         <v>217</v>
@@ -7400,16 +7397,16 @@
         <v>37</v>
       </c>
       <c r="O141" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="P141" s="2"/>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A142" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F142" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H142" s="2" t="s">
         <v>126</v>
@@ -7424,7 +7421,7 @@
         <v>350</v>
       </c>
       <c r="L142" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M142" s="2" t="s">
         <v>217</v>
@@ -7433,16 +7430,16 @@
         <v>25</v>
       </c>
       <c r="O142" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="P142" s="2"/>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A143" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H143" s="2" t="s">
         <v>127</v>
@@ -7457,7 +7454,7 @@
         <v>350</v>
       </c>
       <c r="L143" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M143" s="2" t="s">
         <v>217</v>
@@ -7466,16 +7463,16 @@
         <v>568</v>
       </c>
       <c r="O143" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P143" s="2"/>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A144" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F144" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H144" s="2" t="s">
         <v>128</v>
@@ -7490,7 +7487,7 @@
         <v>350</v>
       </c>
       <c r="L144" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M144" s="2" t="s">
         <v>217</v>
@@ -7499,16 +7496,16 @@
         <v>46</v>
       </c>
       <c r="O144" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P144" s="2"/>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A145" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F145" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H145" s="2" t="s">
         <v>129</v>
@@ -7523,7 +7520,7 @@
         <v>350</v>
       </c>
       <c r="L145" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M145" s="2" t="s">
         <v>217</v>
@@ -7532,16 +7529,16 @@
         <v>517</v>
       </c>
       <c r="O145" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P145" s="2"/>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A146" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F146" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H146" s="2" t="s">
         <v>130</v>
@@ -7556,7 +7553,7 @@
         <v>350</v>
       </c>
       <c r="L146" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M146" s="2" t="s">
         <v>217</v>
@@ -7565,16 +7562,16 @@
         <v>354</v>
       </c>
       <c r="O146" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P146" s="2"/>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A147" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F147" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H147" s="2" t="s">
         <v>131</v>
@@ -7589,7 +7586,7 @@
         <v>350</v>
       </c>
       <c r="L147" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M147" s="2" t="s">
         <v>217</v>
@@ -7598,16 +7595,16 @@
         <v>163</v>
       </c>
       <c r="O147" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="P147" s="2"/>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A148" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F148" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H148" s="2" t="s">
         <v>132</v>
@@ -7622,7 +7619,7 @@
         <v>350</v>
       </c>
       <c r="L148" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M148" s="2" t="s">
         <v>217</v>
@@ -7631,16 +7628,16 @@
         <v>24</v>
       </c>
       <c r="O148" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="P148" s="2"/>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A149" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H149" s="2" t="s">
         <v>133</v>
@@ -7655,7 +7652,7 @@
         <v>350</v>
       </c>
       <c r="L149" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M149" s="2" t="s">
         <v>217</v>
@@ -7664,16 +7661,16 @@
         <v>24</v>
       </c>
       <c r="O149" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="P149" s="2"/>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A150" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F150" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H150" s="2" t="s">
         <v>134</v>
@@ -7688,7 +7685,7 @@
         <v>350</v>
       </c>
       <c r="L150" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M150" s="2" t="s">
         <v>217</v>
@@ -7697,16 +7694,16 @@
         <v>38</v>
       </c>
       <c r="O150" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="P150" s="2"/>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A151" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F151" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H151" s="2" t="s">
         <v>135</v>
@@ -7721,7 +7718,7 @@
         <v>350</v>
       </c>
       <c r="L151" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M151" s="2" t="s">
         <v>217</v>
@@ -7730,16 +7727,16 @@
         <v>27</v>
       </c>
       <c r="O151" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="P151" s="2"/>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A152" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F152" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H152" s="2" t="s">
         <v>136</v>
@@ -7754,7 +7751,7 @@
         <v>350</v>
       </c>
       <c r="L152" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M152" s="2" t="s">
         <v>217</v>
@@ -7763,16 +7760,16 @@
         <v>17</v>
       </c>
       <c r="O152" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P152" s="2"/>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A153" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F153" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H153" s="2" t="s">
         <v>137</v>
@@ -7787,7 +7784,7 @@
         <v>350</v>
       </c>
       <c r="L153" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M153" s="2" t="s">
         <v>217</v>
@@ -7802,10 +7799,10 @@
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A154" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F154" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H154" s="2" t="s">
         <v>138</v>
@@ -7820,7 +7817,7 @@
         <v>350</v>
       </c>
       <c r="L154" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M154" s="2" t="s">
         <v>217</v>
@@ -7829,16 +7826,16 @@
         <v>26</v>
       </c>
       <c r="O154" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P154" s="2"/>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A155" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F155" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H155" s="2" t="s">
         <v>139</v>
@@ -7853,7 +7850,7 @@
         <v>350</v>
       </c>
       <c r="L155" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M155" s="2" t="s">
         <v>217</v>
@@ -7862,16 +7859,16 @@
         <v>528</v>
       </c>
       <c r="O155" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P155" s="2"/>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A156" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F156" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H156" s="2" t="s">
         <v>140</v>
@@ -7886,7 +7883,7 @@
         <v>350</v>
       </c>
       <c r="L156" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M156" s="2" t="s">
         <v>217</v>
@@ -7895,16 +7892,16 @@
         <v>375</v>
       </c>
       <c r="O156" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P156" s="2"/>
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A157" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F157" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H157" s="2" t="s">
         <v>141</v>
@@ -7919,7 +7916,7 @@
         <v>350</v>
       </c>
       <c r="L157" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M157" s="2" t="s">
         <v>217</v>
@@ -7928,16 +7925,16 @@
         <v>153</v>
       </c>
       <c r="O157" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="P157" s="2"/>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A158" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F158" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H158" s="2" t="s">
         <v>142</v>
@@ -7952,7 +7949,7 @@
         <v>350</v>
       </c>
       <c r="L158" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M158" s="2" t="s">
         <v>217</v>
@@ -7961,16 +7958,16 @@
         <v>26</v>
       </c>
       <c r="O158" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="P158" s="2"/>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A159" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F159" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H159" s="2" t="s">
         <v>143</v>
@@ -7985,7 +7982,7 @@
         <v>350</v>
       </c>
       <c r="L159" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M159" s="2" t="s">
         <v>217</v>
@@ -7994,16 +7991,16 @@
         <v>17</v>
       </c>
       <c r="O159" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="P159" s="2"/>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A160" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F160" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H160" s="2" t="s">
         <v>144</v>
@@ -8018,7 +8015,7 @@
         <v>350</v>
       </c>
       <c r="L160" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M160" s="2" t="s">
         <v>217</v>
@@ -8027,16 +8024,16 @@
         <v>39</v>
       </c>
       <c r="O160" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="P160" s="2"/>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A161" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F161" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H161" s="2" t="s">
         <v>145</v>
@@ -8051,7 +8048,7 @@
         <v>350</v>
       </c>
       <c r="L161" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M161" s="2" t="s">
         <v>217</v>
@@ -8060,16 +8057,16 @@
         <v>35</v>
       </c>
       <c r="O161" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P161" s="2"/>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A162" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F162" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H162" s="2" t="s">
         <v>146</v>
@@ -8084,7 +8081,7 @@
         <v>350</v>
       </c>
       <c r="L162" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M162" s="2" t="s">
         <v>217</v>
@@ -8093,16 +8090,16 @@
         <v>17</v>
       </c>
       <c r="O162" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P162" s="2"/>
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A163" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F163" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H163" s="2" t="s">
         <v>147</v>
@@ -8117,7 +8114,7 @@
         <v>350</v>
       </c>
       <c r="L163" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M163" s="2" t="s">
         <v>217</v>
@@ -8126,16 +8123,16 @@
         <v>472</v>
       </c>
       <c r="O163" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="P163" s="2"/>
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A164" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F164" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H164" s="2" t="s">
         <v>148</v>
@@ -8150,7 +8147,7 @@
         <v>350</v>
       </c>
       <c r="L164" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M164" s="2" t="s">
         <v>217</v>
@@ -8159,22 +8156,22 @@
         <v>12</v>
       </c>
       <c r="O164" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="P164" s="2"/>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A165" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F165" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="J165" s="2" t="s">
         <v>350</v>
@@ -8190,22 +8187,22 @@
         <v>586.4</v>
       </c>
       <c r="O165" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P165" s="2"/>
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A166" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F166" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="J166" s="2" t="s">
         <v>350</v>
@@ -8221,22 +8218,22 @@
         <v>409.2</v>
       </c>
       <c r="O166" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P166" s="2"/>
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A167" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F167" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J167" s="2" t="s">
         <v>350</v>
@@ -8258,16 +8255,16 @@
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A168" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F168" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J168" s="2" t="s">
         <v>350</v>
@@ -8283,22 +8280,22 @@
         <v>23.6</v>
       </c>
       <c r="O168" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="P168" s="2"/>
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A169" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F169" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J169" s="2" t="s">
         <v>350</v>
@@ -8314,22 +8311,22 @@
         <v>24.4</v>
       </c>
       <c r="O169" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="P169" s="2"/>
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A170" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F170" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J170" s="2" t="s">
         <v>350</v>
@@ -8345,22 +8342,22 @@
         <v>42.2</v>
       </c>
       <c r="O170" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="P170" s="2"/>
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A171" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F171" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J171" s="2" t="s">
         <v>350</v>
@@ -8376,22 +8373,22 @@
         <v>34.4</v>
       </c>
       <c r="O171" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="P171" s="2"/>
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A172" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F172" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H172" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J172" s="2" t="s">
         <v>350</v>
@@ -8407,22 +8404,22 @@
         <v>26.6</v>
       </c>
       <c r="O172" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="P172" s="2"/>
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A173" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F173" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H173" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J173" s="2" t="s">
         <v>350</v>
@@ -8438,22 +8435,22 @@
         <v>510.8</v>
       </c>
       <c r="O173" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P173" s="2"/>
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A174" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F174" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H174" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="J174" s="2" t="s">
         <v>350</v>
@@ -8469,7 +8466,7 @@
         <v>27</v>
       </c>
       <c r="O174" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P174" s="2"/>
     </row>
@@ -8478,7 +8475,7 @@
         <v>269</v>
       </c>
       <c r="F175" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H175" s="2" t="s">
         <v>149</v>
@@ -8493,7 +8490,7 @@
         <v>401</v>
       </c>
       <c r="L175" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="M175" s="2" t="s">
         <v>217</v>
@@ -8502,7 +8499,7 @@
         <v>5904</v>
       </c>
       <c r="O175" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P175" s="2"/>
     </row>
@@ -8511,7 +8508,7 @@
         <v>269</v>
       </c>
       <c r="F176" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H176" s="2" t="s">
         <v>150</v>
@@ -8526,7 +8523,7 @@
         <v>401</v>
       </c>
       <c r="L176" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="M176" s="2" t="s">
         <v>217</v>
@@ -8535,58 +8532,58 @@
         <v>9499</v>
       </c>
       <c r="O176" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P176" s="2"/>
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A177" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F177" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H177" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I177" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="J177" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K177" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M177" s="2" t="s">
-        <v>408</v>
+        <v>224</v>
       </c>
       <c r="N177" s="2">
         <v>39.5</v>
       </c>
       <c r="O177" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P177" s="2"/>
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A178" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F178" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="J178" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K178" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M178" s="2" t="s">
         <v>224</v>
@@ -8595,16 +8592,16 @@
         <v>4.1500000000000004</v>
       </c>
       <c r="O178" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P178" s="2"/>
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A179" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F179" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H179" s="2" t="s">
         <v>151</v>
@@ -8613,13 +8610,13 @@
         <v>402</v>
       </c>
       <c r="J179" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K179" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L179" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="M179" s="2" t="s">
         <v>224</v>
@@ -8628,16 +8625,16 @@
         <v>13.3</v>
       </c>
       <c r="O179" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P179" s="2"/>
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A180" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F180" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H180" s="2" t="s">
         <v>152</v>
@@ -8646,13 +8643,13 @@
         <v>403</v>
       </c>
       <c r="J180" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K180" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L180" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="M180" s="2" t="s">
         <v>224</v>
@@ -8661,16 +8658,16 @@
         <v>14.7</v>
       </c>
       <c r="O180" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P180" s="2"/>
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A181" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F181" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H181" s="2" t="s">
         <v>153</v>
@@ -8679,13 +8676,13 @@
         <v>404</v>
       </c>
       <c r="J181" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K181" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L181" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="M181" s="2" t="s">
         <v>224</v>
@@ -8694,16 +8691,16 @@
         <v>14.5</v>
       </c>
       <c r="O181" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P181" s="2"/>
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A182" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F182" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H182" s="2" t="s">
         <v>154</v>
@@ -8712,13 +8709,13 @@
         <v>407</v>
       </c>
       <c r="J182" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K182" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L182" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="M182" s="2" t="s">
         <v>224</v>
@@ -8727,16 +8724,16 @@
         <v>15.2</v>
       </c>
       <c r="O182" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P182" s="2"/>
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A183" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F183" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H183" s="2" t="s">
         <v>155</v>
@@ -8745,13 +8742,13 @@
         <v>405</v>
       </c>
       <c r="J183" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K183" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L183" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="M183" s="2" t="s">
         <v>224</v>
@@ -8760,16 +8757,16 @@
         <v>35.4</v>
       </c>
       <c r="O183" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P183" s="2"/>
     </row>
     <row r="184" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A184" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F184" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H184" s="2" t="s">
         <v>156</v>
@@ -8778,13 +8775,13 @@
         <v>406</v>
       </c>
       <c r="J184" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K184" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L184" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="M184" s="2" t="s">
         <v>224</v>
@@ -8793,28 +8790,28 @@
         <v>15.8</v>
       </c>
       <c r="O184" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P184" s="2"/>
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A185" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F185" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I185" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="J185" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K185" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L185" s="2"/>
       <c r="M185" s="2" t="s">
@@ -8824,28 +8821,28 @@
         <v>22</v>
       </c>
       <c r="O185" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P185" s="2"/>
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A186" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F186" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H186" s="2" t="s">
         <v>157</v>
       </c>
       <c r="I186" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="J186" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="J186" s="2" t="s">
-        <v>544</v>
-      </c>
       <c r="K186" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L186" s="2"/>
       <c r="M186" s="2" t="s">
@@ -8855,31 +8852,31 @@
         <v>20.58</v>
       </c>
       <c r="O186" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P186" s="2"/>
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A187" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F187" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H187" s="2" t="s">
         <v>158</v>
       </c>
       <c r="I187" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J187" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="K187" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="K187" s="2" t="s">
-        <v>420</v>
-      </c>
       <c r="L187" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="M187" s="2" t="s">
         <v>224</v>
@@ -8888,31 +8885,31 @@
         <v>1</v>
       </c>
       <c r="O187" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P187" s="2"/>
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A188" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F188" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H188" s="2" t="s">
         <v>159</v>
       </c>
       <c r="I188" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J188" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="K188" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="K188" s="2" t="s">
-        <v>420</v>
-      </c>
       <c r="L188" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="M188" s="2" t="s">
         <v>224</v>
@@ -8921,31 +8918,31 @@
         <v>1</v>
       </c>
       <c r="O188" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P188" s="2"/>
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A189" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F189" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H189" s="2" t="s">
         <v>160</v>
       </c>
       <c r="I189" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="J189" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="K189" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="K189" s="2" t="s">
-        <v>420</v>
-      </c>
       <c r="L189" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="M189" s="2" t="s">
         <v>224</v>
@@ -8954,31 +8951,31 @@
         <v>1</v>
       </c>
       <c r="O189" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P189" s="2"/>
     </row>
     <row r="190" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A190" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F190" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H190" s="2" t="s">
         <v>161</v>
       </c>
       <c r="I190" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="J190" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="K190" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="K190" s="2" t="s">
-        <v>420</v>
-      </c>
       <c r="L190" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="M190" s="2" t="s">
         <v>224</v>
@@ -8987,31 +8984,31 @@
         <v>0</v>
       </c>
       <c r="O190" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P190" s="2"/>
     </row>
     <row r="191" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A191" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F191" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H191" s="2" t="s">
         <v>162</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J191" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="K191" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="K191" s="2" t="s">
-        <v>420</v>
-      </c>
       <c r="L191" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="M191" s="2" t="s">
         <v>224</v>
@@ -9020,262 +9017,262 @@
         <v>1</v>
       </c>
       <c r="O191" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P191" s="2"/>
     </row>
     <row r="192" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A192" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F192" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H192" s="2" t="s">
         <v>163</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J192" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="K192" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="K192" s="2" t="s">
+      <c r="L192" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="M192" s="2" t="s">
         <v>420</v>
-      </c>
-      <c r="L192" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="M192" s="2" t="s">
-        <v>421</v>
       </c>
       <c r="N192" s="3">
         <v>39285</v>
       </c>
       <c r="O192" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P192" s="2"/>
     </row>
     <row r="193" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A193" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F193" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H193" s="2" t="s">
         <v>164</v>
       </c>
       <c r="I193" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J193" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="K193" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="K193" s="2" t="s">
+      <c r="L193" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="M193" s="2" t="s">
         <v>420</v>
-      </c>
-      <c r="L193" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="M193" s="2" t="s">
-        <v>421</v>
       </c>
       <c r="N193" s="3">
         <v>40756</v>
       </c>
       <c r="O193" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P193" s="2"/>
     </row>
     <row r="194" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A194" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F194" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H194" s="2" t="s">
         <v>165</v>
       </c>
       <c r="I194" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J194" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="K194" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="K194" s="2" t="s">
+      <c r="L194" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="M194" s="2" t="s">
         <v>420</v>
-      </c>
-      <c r="L194" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="M194" s="2" t="s">
-        <v>421</v>
       </c>
       <c r="N194" s="3">
         <v>40909</v>
       </c>
       <c r="O194" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P194" s="2"/>
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A195" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F195" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H195" s="2" t="s">
         <v>166</v>
       </c>
       <c r="I195" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J195" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="K195" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="K195" s="2" t="s">
+      <c r="L195" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="M195" s="2" t="s">
         <v>420</v>
-      </c>
-      <c r="L195" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="M195" s="2" t="s">
-        <v>421</v>
       </c>
       <c r="N195" s="3">
         <v>41821</v>
       </c>
       <c r="O195" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P195" s="2"/>
     </row>
     <row r="196" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A196" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F196" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H196" s="2" t="s">
         <v>167</v>
       </c>
       <c r="I196" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="J196" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="J196" s="2" t="s">
+      <c r="K196" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="K196" s="2" t="s">
+      <c r="L196" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="M196" s="2" t="s">
         <v>420</v>
-      </c>
-      <c r="L196" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="M196" s="2" t="s">
-        <v>421</v>
       </c>
       <c r="N196" s="3">
         <v>39285</v>
       </c>
       <c r="O196" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P196" s="2"/>
     </row>
     <row r="197" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A197" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F197" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H197" s="2" t="s">
         <v>168</v>
       </c>
       <c r="I197" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J197" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="K197" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="K197" s="2" t="s">
+      <c r="L197" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="M197" s="2" t="s">
         <v>420</v>
-      </c>
-      <c r="L197" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="M197" s="2" t="s">
-        <v>421</v>
       </c>
       <c r="N197" s="3">
         <v>40339</v>
       </c>
       <c r="O197" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P197" s="2"/>
     </row>
     <row r="198" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A198" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F198" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H198" s="2" t="s">
         <v>169</v>
       </c>
       <c r="I198" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J198" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="K198" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="K198" s="2" t="s">
+      <c r="L198" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="M198" s="2" t="s">
         <v>420</v>
-      </c>
-      <c r="L198" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="M198" s="2" t="s">
-        <v>421</v>
       </c>
       <c r="N198" s="3">
         <v>42278</v>
       </c>
       <c r="O198" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P198" s="2"/>
     </row>
     <row r="199" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A199" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F199" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H199" s="2" t="s">
         <v>170</v>
       </c>
       <c r="I199" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J199" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="K199" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="K199" s="2" t="s">
-        <v>420</v>
-      </c>
       <c r="L199" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="M199" s="2" t="s">
         <v>224</v>
@@ -9284,31 +9281,31 @@
         <v>1</v>
       </c>
       <c r="O199" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P199" s="2"/>
     </row>
     <row r="200" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A200" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F200" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H200" s="2" t="s">
         <v>171</v>
       </c>
       <c r="I200" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J200" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="K200" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="K200" s="2" t="s">
-        <v>420</v>
-      </c>
       <c r="L200" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="M200" s="2" t="s">
         <v>224</v>
@@ -9317,130 +9314,130 @@
         <v>0</v>
       </c>
       <c r="O200" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P200" s="2"/>
     </row>
     <row r="201" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A201" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F201" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H201" s="2" t="s">
         <v>172</v>
       </c>
       <c r="I201" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J201" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="K201" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="K201" s="2" t="s">
+      <c r="L201" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="M201" s="2" t="s">
         <v>420</v>
-      </c>
-      <c r="L201" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="M201" s="2" t="s">
-        <v>421</v>
       </c>
       <c r="N201" s="3">
         <v>40360</v>
       </c>
       <c r="O201" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P201" s="2"/>
     </row>
     <row r="202" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A202" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F202" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H202" s="2" t="s">
         <v>173</v>
       </c>
       <c r="I202" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="J202" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="K202" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="K202" s="2" t="s">
+      <c r="L202" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="M202" s="2" t="s">
         <v>420</v>
-      </c>
-      <c r="L202" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="M202" s="2" t="s">
-        <v>421</v>
       </c>
       <c r="N202" s="3">
         <v>42217</v>
       </c>
       <c r="O202" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P202" s="2"/>
     </row>
     <row r="203" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A203" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F203" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H203" s="2" t="s">
         <v>174</v>
       </c>
       <c r="I203" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J203" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="K203" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="K203" s="2" t="s">
+      <c r="L203" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="M203" s="2" t="s">
         <v>420</v>
-      </c>
-      <c r="L203" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="M203" s="2" t="s">
-        <v>421</v>
       </c>
       <c r="N203" s="3">
         <v>41760</v>
       </c>
       <c r="O203" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P203" s="2"/>
     </row>
     <row r="204" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A204" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F204" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H204" s="2" t="s">
         <v>175</v>
       </c>
       <c r="I204" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J204" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="K204" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="K204" s="2" t="s">
-        <v>420</v>
-      </c>
       <c r="L204" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="M204" s="2" t="s">
         <v>224</v>
@@ -9449,31 +9446,31 @@
         <v>1</v>
       </c>
       <c r="O204" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P204" s="2"/>
     </row>
     <row r="205" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A205" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F205" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H205" s="2" t="s">
         <v>176</v>
       </c>
       <c r="I205" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J205" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="K205" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="K205" s="2" t="s">
-        <v>420</v>
-      </c>
       <c r="L205" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="M205" s="2" t="s">
         <v>224</v>
@@ -9482,31 +9479,31 @@
         <v>1</v>
       </c>
       <c r="O205" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P205" s="2"/>
     </row>
     <row r="206" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A206" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F206" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H206" s="2" t="s">
         <v>177</v>
       </c>
       <c r="I206" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J206" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="K206" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="K206" s="2" t="s">
-        <v>420</v>
-      </c>
       <c r="L206" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="M206" s="2" t="s">
         <v>224</v>
@@ -9515,31 +9512,31 @@
         <v>0</v>
       </c>
       <c r="O206" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P206" s="2"/>
     </row>
     <row r="207" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A207" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F207" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H207" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I207" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="J207" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="J207" s="2" t="s">
-        <v>435</v>
-      </c>
       <c r="K207" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L207" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="M207" s="2" t="s">
         <v>217</v>
@@ -9548,31 +9545,31 @@
         <v>14959703300</v>
       </c>
       <c r="O207" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P207" s="2"/>
     </row>
     <row r="208" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A208" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F208" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H208" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="I208" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="I208" s="2" t="s">
-        <v>438</v>
-      </c>
       <c r="J208" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K208" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L208" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M208" s="2" t="s">
         <v>217</v>
@@ -9581,31 +9578,31 @@
         <v>12037465400</v>
       </c>
       <c r="O208" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P208" s="2"/>
     </row>
     <row r="209" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A209" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F209" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H209" s="2" t="s">
         <v>178</v>
       </c>
       <c r="I209" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J209" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K209" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L209" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M209" s="2" t="s">
         <v>217</v>
@@ -9614,31 +9611,31 @@
         <v>4610569600</v>
       </c>
       <c r="O209" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P209" s="2"/>
     </row>
     <row r="210" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A210" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F210" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H210" s="2" t="s">
         <v>179</v>
       </c>
       <c r="I210" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J210" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K210" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L210" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M210" s="2" t="s">
         <v>217</v>
@@ -9647,31 +9644,31 @@
         <v>4349828600</v>
       </c>
       <c r="O210" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P210" s="2"/>
     </row>
     <row r="211" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A211" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F211" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H211" s="2" t="s">
         <v>180</v>
       </c>
       <c r="I211" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J211" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K211" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L211" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M211" s="2" t="s">
         <v>217</v>
@@ -9680,31 +9677,31 @@
         <v>2902387900</v>
       </c>
       <c r="O211" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P211" s="2"/>
     </row>
     <row r="212" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A212" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F212" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H212" s="2" t="s">
         <v>181</v>
       </c>
       <c r="I212" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="J212" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="J212" s="2" t="s">
-        <v>443</v>
-      </c>
       <c r="K212" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L212" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M212" s="2" t="s">
         <v>217</v>
@@ -9713,262 +9710,262 @@
         <v>174679300</v>
       </c>
       <c r="O212" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P212" s="2"/>
     </row>
     <row r="213" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A213" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F213" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H213" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I213" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J213" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="K213" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="K213" s="2" t="s">
-        <v>447</v>
-      </c>
       <c r="L213" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="M213" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="N213" s="2">
         <v>1</v>
       </c>
       <c r="O213" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P213" s="2"/>
     </row>
     <row r="214" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A214" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F214" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H214" s="2" t="s">
         <v>183</v>
       </c>
       <c r="I214" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J214" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="K214" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="K214" s="2" t="s">
-        <v>447</v>
-      </c>
       <c r="L214" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="M214" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="N214" s="2">
         <v>0</v>
       </c>
       <c r="O214" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P214" s="2"/>
     </row>
     <row r="215" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A215" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F215" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H215" s="2" t="s">
         <v>184</v>
       </c>
       <c r="I215" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J215" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="K215" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="K215" s="2" t="s">
-        <v>447</v>
-      </c>
       <c r="L215" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="M215" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="N215" s="2">
         <v>0</v>
       </c>
       <c r="O215" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P215" s="2"/>
     </row>
     <row r="216" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A216" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F216" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H216" s="2" t="s">
         <v>185</v>
       </c>
       <c r="I216" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J216" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="K216" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="K216" s="2" t="s">
-        <v>447</v>
-      </c>
       <c r="L216" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="M216" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="N216" s="2">
         <v>0</v>
       </c>
       <c r="O216" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P216" s="2"/>
     </row>
     <row r="217" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A217" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F217" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H217" s="2" t="s">
         <v>186</v>
       </c>
       <c r="I217" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J217" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="K217" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="K217" s="2" t="s">
-        <v>447</v>
-      </c>
       <c r="L217" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="M217" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="N217" s="2">
         <v>0</v>
       </c>
       <c r="O217" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P217" s="2"/>
     </row>
     <row r="218" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A218" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F218" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H218" s="2" t="s">
         <v>187</v>
       </c>
       <c r="I218" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="J218" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="K218" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="K218" s="2" t="s">
-        <v>447</v>
-      </c>
       <c r="L218" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="M218" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="N218" s="2">
         <v>0</v>
       </c>
       <c r="O218" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P218" s="2"/>
     </row>
     <row r="219" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A219" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F219" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H219" s="2" t="s">
         <v>188</v>
       </c>
       <c r="I219" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J219" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K219" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L219" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="M219" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="N219" s="2">
         <v>1</v>
       </c>
       <c r="O219" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P219" s="2"/>
     </row>
     <row r="220" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A220" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F220" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H220" s="2" t="s">
         <v>189</v>
       </c>
       <c r="I220" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J220" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K220" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L220" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M220" s="2" t="s">
         <v>217</v>
@@ -9981,25 +9978,25 @@
     </row>
     <row r="221" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A221" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F221" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H221" s="2" t="s">
         <v>190</v>
       </c>
       <c r="I221" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J221" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K221" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L221" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M221" s="2" t="s">
         <v>217</v>
@@ -10014,25 +10011,25 @@
     </row>
     <row r="222" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A222" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F222" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H222" s="2" t="s">
         <v>191</v>
       </c>
       <c r="I222" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J222" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K222" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L222" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M222" s="2" t="s">
         <v>217</v>
@@ -10041,31 +10038,31 @@
         <v>915105</v>
       </c>
       <c r="O222" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P222" s="2"/>
     </row>
     <row r="223" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A223" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F223" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H223" s="2" t="s">
         <v>192</v>
       </c>
       <c r="I223" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J223" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K223" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L223" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M223" s="2" t="s">
         <v>217</v>
@@ -10074,31 +10071,31 @@
         <v>1830210</v>
       </c>
       <c r="O223" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P223" s="2"/>
     </row>
     <row r="224" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A224" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F224" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H224" s="2" t="s">
         <v>193</v>
       </c>
       <c r="I224" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J224" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K224" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L224" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M224" s="2" t="s">
         <v>217</v>
@@ -10113,25 +10110,25 @@
     </row>
     <row r="225" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A225" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F225" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H225" s="2" t="s">
         <v>194</v>
       </c>
       <c r="I225" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="J225" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K225" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L225" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M225" s="2" t="s">
         <v>217</v>
@@ -10146,25 +10143,25 @@
     </row>
     <row r="226" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A226" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F226" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H226" s="2" t="s">
         <v>195</v>
       </c>
       <c r="I226" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J226" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K226" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L226" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M226" s="2" t="s">
         <v>217</v>
@@ -10179,25 +10176,25 @@
     </row>
     <row r="227" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A227" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F227" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H227" s="2" t="s">
         <v>196</v>
       </c>
       <c r="I227" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="J227" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K227" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L227" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M227" s="2" t="s">
         <v>217</v>
@@ -10212,25 +10209,25 @@
     </row>
     <row r="228" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A228" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F228" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H228" s="2" t="s">
         <v>197</v>
       </c>
       <c r="I228" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="J228" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K228" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L228" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M228" s="2" t="s">
         <v>217</v>
@@ -10239,31 +10236,31 @@
         <v>3111711</v>
       </c>
       <c r="O228" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P228" s="2"/>
     </row>
     <row r="229" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A229" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F229" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H229" s="2" t="s">
         <v>198</v>
       </c>
       <c r="I229" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J229" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K229" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L229" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M229" s="2" t="s">
         <v>217</v>
@@ -10272,31 +10269,31 @@
         <v>3690282</v>
       </c>
       <c r="O229" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P229" s="2"/>
     </row>
     <row r="230" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A230" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F230" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H230" s="2" t="s">
         <v>199</v>
       </c>
       <c r="I230" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="J230" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K230" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L230" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M230" s="2" t="s">
         <v>217</v>
@@ -10305,31 +10302,31 @@
         <v>3111711</v>
       </c>
       <c r="O230" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P230" s="2"/>
     </row>
     <row r="231" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A231" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F231" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H231" s="2" t="s">
         <v>200</v>
       </c>
       <c r="I231" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="J231" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="K231" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="J231" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="K231" s="2" t="s">
-        <v>469</v>
-      </c>
       <c r="L231" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M231" s="2" t="s">
         <v>217</v>
